--- a/BoM/Costs/kicad-automation-test-bom.xlsx
+++ b/BoM/Costs/kicad-automation-test-bom.xlsx
@@ -253,7 +253,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-02-10_23-25-35</t>
+    <t>2023-02-10_23-45-28</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -307,7 +307,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-02-10 23:25:44</t>
+    <t>2023-02-10 23:45:37</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.0</t>

--- a/BoM/Costs/kicad-automation-test-bom.xlsx
+++ b/BoM/Costs/kicad-automation-test-bom.xlsx
@@ -253,7 +253,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-02-10_23-45-28</t>
+    <t>2023-02-10_23-49-14</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -307,7 +307,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-02-10 23:45:37</t>
+    <t>2023-02-10 23:49:24</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.0</t>
